--- a/Tesla TSLA.xlsx
+++ b/Tesla TSLA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\! Investing-Portfolio\Stock analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E988B5A-9CB9-4350-B173-9F05F960BD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CD2632-705E-4076-8822-048B6A4F8423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78523A0C-3EFC-4424-BD76-E39280954CB7}"/>
   </bookViews>
@@ -58,6 +58,20 @@
             <family val="2"/>
           </rPr>
           <t>The video's data are not updated, but the rationale that drives them is the same and you can use it to ponder on your own valuation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{82B2B1CE-FD17-42E7-AF98-C20267A26680}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Please, pardon the bad english ;)</t>
         </r>
       </text>
     </comment>
@@ -1725,7 +1739,7 @@
     <numFmt numFmtId="206" formatCode="0\ &quot; Year&quot;"/>
     <numFmt numFmtId="207" formatCode="#,##0,&quot; bln&quot;"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2156,6 +2170,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4369,13 +4390,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>794.34344813166354</c:v>
+                  <c:v>819.07160456841393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>560.38187360783047</c:v>
+                  <c:v>577.62745107610795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>329.88</c:v>
+                  <c:v>401.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4430,13 +4451,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>114.41079422995267</c:v>
+                  <c:v>118.06988989173908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>432.21883465786027</c:v>
+                  <c:v>446.04209375516734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>570.52</c:v>
+                  <c:v>841.82999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,13 +4532,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>908.75424236161621</c:v>
+                  <c:v>937.14149446015301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>992.60070826569074</c:v>
+                  <c:v>1023.6695448312753</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900.4</c:v>
+                  <c:v>1243.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4785,7 +4806,7 @@
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -4904,39 +4925,36 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>900.4</v>
-    <v>329.88</v>
-    <v>1.9686999999999999</v>
-    <v>6.79</v>
-    <v>2.352E-4</v>
-    <v>1.0082000000000001E-2</v>
-    <v>0.16</v>
+    <v>1243.49</v>
+    <v>401.66</v>
+    <v>2.0409999999999999</v>
+    <v>-4.4400000000000004</v>
+    <v>-4.1570000000000001E-3</v>
     <v>USD</v>
-    <v>Tesla, Inc. designs, develops, manufactures, sells and lease electric vehicles and energy generation and storage systems, and offer services related to its sustainable energy products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of electric vehicles as well as sales of automotive regulatory credits. The energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy systems and energy storage products, services related to its products, and sales of solar energy system incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Model 3 is a four-door sedan. Model Y is a sport utility vehicle (SUV) built on the Model 3 platform. Model S is a four-door sedan. Model X is an SUV. Its energy storage products include Powerwall, Powerpack and Megapack.</v>
+    <v>Tesla, Inc. designs, develops, manufactures, sells and leases electric vehicles and energy generation and storage systems, and offers services related to its sustainable energy products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of electric vehicles as well as sales of automotive regulatory credits. The energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy systems and energy storage products, services related to its products, and sales of solar energy system incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Model 3 is a four-door sedan. Model Y is a sport utility vehicle (SUV) built on the Model 3 platform. Model S is a four-door sedan. Model X is an SUV. The Company's energy storage products include Powerwall, Powerpack and Megapack.</v>
     <v>70757</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3500 Deer Creek Rd, PALO ALTO, CA, 94304-1317 US</v>
-    <v>692.12990000000002</v>
+    <v>1104.97</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>44428.999965126561</v>
+    <v>44511.92358002266</v>
     <v>0</v>
-    <v>673.7</v>
-    <v>673467700000</v>
+    <v>1054.68</v>
+    <v>1057287000000</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>682.85</v>
-    <v>352.16140000000001</v>
-    <v>673.47</v>
-    <v>680.26</v>
-    <v>680.42</v>
+    <v>1102.77</v>
+    <v>345.10719999999998</v>
+    <v>1067.95</v>
+    <v>1063.51</v>
     <v>990015100</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>14841865</v>
-    <v>19426274</v>
+    <v>420578</v>
+    <v>30694028</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -4967,9 +4985,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -4990,7 +5006,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -5007,7 +5022,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5018,16 +5033,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5093,19 +5105,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -5150,9 +5156,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -5160,9 +5163,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5516,7 +5516,9 @@
   </sheetPr>
   <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5608,12 +5610,12 @@
       </c>
       <c r="L4" s="481">
         <f ca="1">DCF!C70</f>
-        <v>838326.69808388036</v>
+        <v>864468.28622242948</v>
       </c>
       <c r="M4" s="482"/>
       <c r="N4" s="487">
         <f ca="1">DCF!C72</f>
-        <v>846.78172896946762</v>
+        <v>873.1869708072428</v>
       </c>
       <c r="O4" s="488"/>
     </row>
@@ -5623,7 +5625,7 @@
       </c>
       <c r="C5" s="501" cm="1">
         <f t="array" ref="C5">_FV(C4,"Price")</f>
-        <v>680.26</v>
+        <v>1063.51</v>
       </c>
       <c r="D5" s="501"/>
       <c r="E5" s="102"/>
@@ -11028,19 +11030,19 @@
       </c>
       <c r="H4" s="322">
         <f>Valuation!C5</f>
-        <v>680.26</v>
+        <v>1063.51</v>
       </c>
       <c r="J4" s="525" t="s">
         <v>408</v>
       </c>
       <c r="K4" s="526">
         <f ca="1">Valuation!L4</f>
-        <v>838326.69808388036</v>
+        <v>864468.28622242948</v>
       </c>
       <c r="L4" s="527"/>
       <c r="M4" s="487">
         <f ca="1">Valuation!N4</f>
-        <v>846.78172896946762</v>
+        <v>873.1869708072428</v>
       </c>
       <c r="N4" s="528"/>
     </row>
@@ -11067,7 +11069,7 @@
       </c>
       <c r="C6" s="520">
         <f ca="1">NOW()</f>
-        <v>44430.402067824078</v>
+        <v>44512.618132523145</v>
       </c>
       <c r="D6" s="522"/>
       <c r="F6" s="249" t="s">
@@ -11084,7 +11086,7 @@
       </c>
       <c r="D7" s="118">
         <f ca="1">YEARFRAC(C6,C4)</f>
-        <v>0.35833333333333334</v>
+        <v>0.1361111111111111</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1">
@@ -11147,7 +11149,7 @@
       </c>
       <c r="C11" s="117">
         <f ca="1">C6</f>
-        <v>44430.402067824078</v>
+        <v>44512.618132523145</v>
       </c>
       <c r="D11" s="117">
         <f>C3</f>
@@ -11214,7 +11216,7 @@
       </c>
       <c r="C13" s="325">
         <f ca="1">+E13*(1-$D$7)+D13*$D$7</f>
-        <v>36574.767013382327</v>
+        <v>38319.794550484439</v>
       </c>
       <c r="D13" s="323">
         <f>FSM!E16</f>
@@ -11314,7 +11316,7 @@
       </c>
       <c r="C15" s="325">
         <f ca="1">+E15*(1-$D$7)+D15*$D$7</f>
-        <v>6411.6633525758789</v>
+        <v>7152.3259855025908</v>
       </c>
       <c r="D15" s="323">
         <f>FSM!E32</f>
@@ -11417,7 +11419,7 @@
       </c>
       <c r="C17" s="325">
         <f ca="1">+E17*(1-$D$7)+D17*$D$7</f>
-        <v>3344.5579822386944</v>
+        <v>3827.1754652650825</v>
       </c>
       <c r="D17" s="323">
         <f>FSM!E21</f>
@@ -12086,7 +12088,7 @@
     <row r="34" spans="2:18">
       <c r="B34" s="56" t="str">
         <f ca="1">"Present value of UFCF on "&amp;TEXT(C6,"mmm dd, yyyy")&amp;" valuation date"</f>
-        <v>Present value of UFCF on Aug 22, 2021 valuation date</v>
+        <v>Present value of UFCF on Nov 12, 2021 valuation date</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="327"/>
@@ -12147,11 +12149,11 @@
       <c r="C36" s="57"/>
       <c r="D36" s="380">
         <f ca="1">C6</f>
-        <v>44430.402067824078</v>
+        <v>44512.618132523145</v>
       </c>
       <c r="E36" s="380">
         <f ca="1">IF($H$6=1,AVERAGE(E11,D36),E11)</f>
-        <v>44495.701033912039</v>
+        <v>44536.809066261572</v>
       </c>
       <c r="F36" s="380">
         <f>IF($H$6=1,AVERAGE(F11,E11),F11)</f>
@@ -12199,7 +12201,7 @@
       <c r="D37" s="329"/>
       <c r="E37" s="325">
         <f ca="1">E29*D7</f>
-        <v>788.36316088941771</v>
+        <v>299.45577429132919</v>
       </c>
       <c r="F37" s="325">
         <f ca="1">F29</f>
@@ -12247,43 +12249,43 @@
       <c r="D38" s="331"/>
       <c r="E38" s="331">
         <f ca="1">E37/(1+$H$3)^((E36-$C$6)/365)</f>
-        <v>768.89564478357124</v>
+        <v>296.69474179288017</v>
       </c>
       <c r="F38" s="331">
         <f ca="1">F37/(1+$H$3)^((F36-$C$6)/365)</f>
-        <v>3351.3155336426848</v>
+        <v>3458.4975889754396</v>
       </c>
       <c r="G38" s="331">
         <f ca="1">G37/(1+$H$3)^((G36-$C$6)/365)</f>
-        <v>6119.0896033236058</v>
+        <v>6314.7908417971548</v>
       </c>
       <c r="H38" s="331">
         <f ca="1">H37/(1+$H$3)^((H36-$C$6)/365)</f>
-        <v>9002.1019730652606</v>
+        <v>9290.0079556867859</v>
       </c>
       <c r="I38" s="331">
         <f ca="1">I37/(1+$H$3)^((I36-$C$6)/365)</f>
-        <v>12915.577892116416</v>
+        <v>13328.644990809644</v>
       </c>
       <c r="J38" s="331">
         <f t="shared" ref="J38:N38" ca="1" si="22">J37/(1+$H$3)^((J36-$C$6)/365)</f>
-        <v>17837.221091929488</v>
+        <v>18407.692597481731</v>
       </c>
       <c r="K38" s="331">
         <f t="shared" ca="1" si="22"/>
-        <v>24780.012195751708</v>
+        <v>25572.528630461904</v>
       </c>
       <c r="L38" s="331">
         <f t="shared" ca="1" si="22"/>
-        <v>34511.705483269296</v>
+        <v>35615.461751398092</v>
       </c>
       <c r="M38" s="331">
         <f t="shared" ca="1" si="22"/>
-        <v>48738.812447923927</v>
+        <v>50297.581247878748</v>
       </c>
       <c r="N38" s="331">
         <f t="shared" ca="1" si="22"/>
-        <v>70423.405170581667</v>
+        <v>72675.692439250124</v>
       </c>
       <c r="O38" s="303"/>
     </row>
@@ -12400,7 +12402,7 @@
       </c>
       <c r="C44" s="325">
         <f ca="1">C43/(1+H3)^((N36-$D$36)/365)</f>
-        <v>604467.56104749267</v>
+        <v>623799.69343689701</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
@@ -12411,7 +12413,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="325">
         <f ca="1">I43/(1+H3)^((N36-D36)/365)</f>
-        <v>534878.96604331234</v>
+        <v>551985.51013302</v>
       </c>
       <c r="J44" s="325"/>
       <c r="K44" s="325"/>
@@ -12426,7 +12428,7 @@
       </c>
       <c r="C45" s="325">
         <f ca="1">SUM(E38:N38)</f>
-        <v>228448.13703638763</v>
+        <v>235257.5927855325</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
@@ -12437,7 +12439,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="325">
         <f ca="1">C45</f>
-        <v>228448.13703638763</v>
+        <v>235257.5927855325</v>
       </c>
       <c r="J45" s="325"/>
       <c r="K45" s="325"/>
@@ -12452,7 +12454,7 @@
       </c>
       <c r="C46" s="331">
         <f ca="1">C45+C44</f>
-        <v>832915.69808388036</v>
+        <v>859057.28622242948</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="151" t="s">
@@ -12463,7 +12465,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="331">
         <f ca="1">SUM(I44:I45)</f>
-        <v>763327.10307969991</v>
+        <v>787243.10291855247</v>
       </c>
       <c r="J46" s="331"/>
       <c r="K46" s="331"/>
@@ -12493,7 +12495,7 @@
       </c>
       <c r="C48" s="141">
         <f ca="1">C44/$C$46</f>
-        <v>0.72572477915600364</v>
+        <v>0.72614446491683804</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="333" t="s">
@@ -12504,7 +12506,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="141">
         <f ca="1">+I44/I46</f>
-        <v>0.70072052189068545</v>
+        <v>0.70116271338121583</v>
       </c>
       <c r="J48" s="141"/>
       <c r="K48" s="141"/>
@@ -12519,7 +12521,7 @@
       </c>
       <c r="C49" s="141">
         <f ca="1">1-C48</f>
-        <v>0.27427522084399636</v>
+        <v>0.27385553508316196</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="333" t="s">
@@ -12530,7 +12532,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="159">
         <f ca="1">1-I48</f>
-        <v>0.29927947810931455</v>
+        <v>0.29883728661878417</v>
       </c>
       <c r="J49" s="159"/>
       <c r="K49" s="159"/>
@@ -12890,11 +12892,11 @@
       </c>
       <c r="C68" s="438">
         <f ca="1">C46</f>
-        <v>832915.69808388036</v>
+        <v>859057.28622242948</v>
       </c>
       <c r="D68" s="439">
         <f ca="1">I46</f>
-        <v>763327.10307969991</v>
+        <v>787243.10291855247</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
@@ -12950,11 +12952,11 @@
       </c>
       <c r="C70" s="439">
         <f ca="1">C68-C69</f>
-        <v>838326.69808388036</v>
+        <v>864468.28622242948</v>
       </c>
       <c r="D70" s="439">
         <f ca="1">D68-D69</f>
-        <v>768738.10307969991</v>
+        <v>792654.10291855247</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="151" t="s">
@@ -12962,19 +12964,19 @@
       </c>
       <c r="G70" s="347">
         <f ca="1">C68/$C$13</f>
-        <v>22.772959777956348</v>
+        <v>22.418107829118547</v>
       </c>
       <c r="H70" s="347">
         <f ca="1">D68/$C$13</f>
-        <v>20.870320316747513</v>
+        <v>20.544032455116596</v>
       </c>
       <c r="I70" s="347">
         <f ca="1">C68/$E$13</f>
-        <v>21.146097914968124</v>
+        <v>21.809781627139987</v>
       </c>
       <c r="J70" s="347">
         <f ca="1">D68/$E$13</f>
-        <v>19.379379809992187</v>
+        <v>19.986560195102193</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
@@ -13000,19 +13002,19 @@
       </c>
       <c r="G71" s="348">
         <f ca="1">C68/$C$15</f>
-        <v>129.90633666835569</v>
+        <v>120.10879928623163</v>
       </c>
       <c r="H71" s="348">
         <f ca="1">D68/$C$15</f>
-        <v>119.05289799300428</v>
+        <v>110.06812392419684</v>
       </c>
       <c r="I71" s="348">
         <f ca="1">C68/$E$15</f>
-        <v>109.50797868183948</v>
+        <v>112.94495613726663</v>
       </c>
       <c r="J71" s="348">
         <f ca="1">D68/$E$15</f>
-        <v>100.35878579743606</v>
+        <v>103.50315299634096</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
@@ -13026,11 +13028,11 @@
       </c>
       <c r="C72" s="442">
         <f ca="1">C70/C71</f>
-        <v>846.78172896946762</v>
+        <v>873.1869708072428</v>
       </c>
       <c r="D72" s="442">
         <f ca="1">D70/D71</f>
-        <v>776.49129097091543</v>
+        <v>800.64849810730414</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="331" t="s">
@@ -13038,19 +13040,19 @@
       </c>
       <c r="G72" s="348">
         <f ca="1">C68/$C$17</f>
-        <v>249.03610656687275</v>
+        <v>224.46247735937771</v>
       </c>
       <c r="H72" s="348">
         <f ca="1">D68/$C$17</f>
-        <v>228.22959181253708</v>
+        <v>205.69819964186709</v>
       </c>
       <c r="I72" s="348">
         <f ca="1">C68/$E$17</f>
-        <v>202.02774973432992</v>
+        <v>208.36851896015</v>
       </c>
       <c r="J72" s="348">
         <f ca="1">D68/$E$17</f>
-        <v>185.14869788285145</v>
+        <v>190.94963985237521</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
@@ -13167,7 +13169,7 @@
       <c r="G77" s="360"/>
       <c r="H77" s="444">
         <f ca="1">C72</f>
-        <v>846.78172896946762</v>
+        <v>873.1869708072428</v>
       </c>
       <c r="I77" s="445">
         <f>J77-0.005</f>
@@ -13217,19 +13219,19 @@
       </c>
       <c r="I78" s="357">
         <f t="dataTable" ref="I78:M82" dt2D="1" dtr="1" r1="C41" r2="H3" ca="1"/>
-        <v>625.78728928445923</v>
+        <v>647.6147176259135</v>
       </c>
       <c r="J78" s="357">
-        <v>642.20843146457344</v>
+        <v>664.626984705778</v>
       </c>
       <c r="K78" s="357">
-        <v>659.8025123718387</v>
+        <v>682.85441371991851</v>
       </c>
       <c r="L78" s="357">
-        <v>678.6998585314941</v>
+        <v>702.43202266103208</v>
       </c>
       <c r="M78" s="357">
-        <v>699.05084670343058</v>
+        <v>723.51560152069317</v>
       </c>
       <c r="N78" s="13"/>
       <c r="O78"/>
@@ -13256,19 +13258,19 @@
         <v>0.16</v>
       </c>
       <c r="I79" s="357">
-        <v>702.93212220097325</v>
+        <v>726.14134869539805</v>
       </c>
       <c r="J79" s="357">
-        <v>723.14900214746604</v>
+        <v>747.04553468802283</v>
       </c>
       <c r="K79" s="357">
-        <v>744.92102666989763</v>
+        <v>769.55773498777239</v>
       </c>
       <c r="L79" s="357">
-        <v>768.43481315412339</v>
+        <v>793.87091131150191</v>
       </c>
       <c r="M79" s="357">
-        <v>793.90808184536832</v>
+        <v>820.21018570054616</v>
       </c>
       <c r="N79" s="13"/>
       <c r="O79"/>
@@ -13294,19 +13296,19 @@
         <v>0.15</v>
       </c>
       <c r="I80" s="357">
-        <v>794.34344813166354</v>
+        <v>819.07160456841393</v>
       </c>
       <c r="J80" s="357">
-        <v>819.51382286225305</v>
+        <v>845.04698034459636</v>
       </c>
       <c r="K80" s="357">
-        <v>846.78172882039189</v>
+        <v>873.18697076879425</v>
       </c>
       <c r="L80" s="357">
-        <v>876.42075703576006</v>
+        <v>903.77391688205284</v>
       </c>
       <c r="M80" s="357">
-        <v>908.75424236161621</v>
+        <v>937.14149446015301</v>
       </c>
       <c r="N80" s="13"/>
       <c r="O80"/>
@@ -13333,19 +13335,19 @@
         <v>0.13999999999999999</v>
       </c>
       <c r="I81" s="357">
-        <v>903.79613158186476</v>
+        <v>930.20333627483149</v>
       </c>
       <c r="J81" s="357">
-        <v>935.54215282119753</v>
+        <v>962.90027484789425</v>
       </c>
       <c r="K81" s="357">
-        <v>970.17417599137923</v>
+        <v>998.569662382145</v>
       </c>
       <c r="L81" s="357">
-        <v>1008.1044870825301</v>
+        <v>1037.636134443467</v>
       </c>
       <c r="M81" s="357">
-        <v>1049.8278292827963</v>
+        <v>1080.6092537109212</v>
       </c>
       <c r="N81" s="13"/>
       <c r="O81"/>
@@ -13372,19 +13374,19 @@
         <v>0.12999999999999998</v>
       </c>
       <c r="I82" s="357">
-        <v>1036.4585458618715</v>
+        <v>1064.7347132000411</v>
       </c>
       <c r="J82" s="357">
-        <v>1077.1098542943596</v>
+        <v>1106.5206767575485</v>
       </c>
       <c r="K82" s="357">
-        <v>1121.8262935700968</v>
+        <v>1152.4852366708067</v>
       </c>
       <c r="L82" s="357">
-        <v>1171.2497264538063</v>
+        <v>1203.2881713117756</v>
       </c>
       <c r="M82" s="357">
-        <v>1226.1646518801499</v>
+        <v>1259.7358764684082</v>
       </c>
       <c r="N82" s="13"/>
       <c r="O82"/>
@@ -13482,7 +13484,7 @@
       <c r="G86" s="102"/>
       <c r="H86" s="378">
         <f ca="1">D72</f>
-        <v>776.49129097091543</v>
+        <v>800.64849810730414</v>
       </c>
       <c r="I86" s="369">
         <f>J86-1</f>
@@ -13530,19 +13532,19 @@
       </c>
       <c r="I87" s="355">
         <f t="dataTable" ref="I87:M91" dt2D="1" dtr="1" r1="I42" r2="H3" ca="1"/>
-        <v>488.85235808586776</v>
+        <v>505.75043078061344</v>
       </c>
       <c r="J87" s="356">
-        <v>581.59410057864363</v>
+        <v>601.83067142175742</v>
       </c>
       <c r="K87" s="356">
-        <v>674.33584307141962</v>
+        <v>697.91091206290139</v>
       </c>
       <c r="L87" s="356">
-        <v>767.0775855641956</v>
+        <v>793.99115270404536</v>
       </c>
       <c r="M87" s="356">
-        <v>859.81932805697147</v>
+        <v>890.07139334518922</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -13567,19 +13569,19 @@
         <v>0.16</v>
       </c>
       <c r="I88" s="371">
-        <v>523.17417425004146</v>
+        <v>540.27223353560396</v>
       </c>
       <c r="J88" s="357">
-        <v>623.24706308282282</v>
+        <v>643.74726476785895</v>
       </c>
       <c r="K88" s="357">
-        <v>723.31995191560429</v>
+        <v>747.22229600011394</v>
       </c>
       <c r="L88" s="357">
-        <v>823.39284074838577</v>
+        <v>850.69732723236905</v>
       </c>
       <c r="M88" s="357">
-        <v>923.46572958116712</v>
+        <v>954.17235846462404</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
@@ -13603,19 +13605,19 @@
         <v>0.15</v>
       </c>
       <c r="I89" s="371">
-        <v>560.38187360783047</v>
+        <v>577.62745107610795</v>
       </c>
       <c r="J89" s="357">
-        <v>668.43658227229548</v>
+        <v>689.13797450362051</v>
       </c>
       <c r="K89" s="381">
-        <v>776.49129093676061</v>
+        <v>800.64849796636656</v>
       </c>
       <c r="L89" s="357">
-        <v>884.54599960122573</v>
+        <v>912.1590213988211</v>
       </c>
       <c r="M89" s="357">
-        <v>992.60070826569074</v>
+        <v>1023.6695448312753</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -13640,19 +13642,19 @@
         <v>0.13999999999999999</v>
       </c>
       <c r="I90" s="371">
-        <v>600.75057574293692</v>
+        <v>618.08038221227605</v>
       </c>
       <c r="J90" s="357">
-        <v>717.50195720013301</v>
+        <v>738.3289235364025</v>
       </c>
       <c r="K90" s="357">
-        <v>834.25333865732887</v>
+        <v>858.57746486052883</v>
       </c>
       <c r="L90" s="357">
-        <v>951.00472011452507</v>
+        <v>978.8260061846554</v>
       </c>
       <c r="M90" s="357">
-        <v>1067.7561015717208</v>
+        <v>1099.0745475087817</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -13677,19 +13679,19 @@
         <v>0.12999999999999998</v>
       </c>
       <c r="I91" s="371">
-        <v>644.58460441337832</v>
+        <v>661.92282659366003</v>
       </c>
       <c r="J91" s="357">
-        <v>770.81866717235732</v>
+        <v>791.68032145256166</v>
       </c>
       <c r="K91" s="357">
-        <v>897.05272993133633</v>
+        <v>921.43781631146328</v>
       </c>
       <c r="L91" s="357">
-        <v>1023.2867926903153</v>
+        <v>1051.1953111703651</v>
       </c>
       <c r="M91" s="357">
-        <v>1149.5208554492942</v>
+        <v>1180.9528060292664</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -13799,15 +13801,15 @@
       </c>
       <c r="C96" s="375">
         <f>I80</f>
-        <v>794.34344813166354</v>
+        <v>819.07160456841393</v>
       </c>
       <c r="D96" s="375">
         <f>E96-C96</f>
-        <v>114.41079422995267</v>
+        <v>118.06988989173908</v>
       </c>
       <c r="E96" s="376">
         <f>M80</f>
-        <v>908.75424236161621</v>
+        <v>937.14149446015301</v>
       </c>
       <c r="F96" s="102"/>
       <c r="G96" s="102"/>
@@ -13831,15 +13833,15 @@
       </c>
       <c r="C97" s="372">
         <f>I89</f>
-        <v>560.38187360783047</v>
+        <v>577.62745107610795</v>
       </c>
       <c r="D97" s="372">
         <f>E97-C97</f>
-        <v>432.21883465786027</v>
+        <v>446.04209375516734</v>
       </c>
       <c r="E97" s="377">
         <f>M89</f>
-        <v>992.60070826569074</v>
+        <v>1023.6695448312753</v>
       </c>
       <c r="F97" s="102"/>
       <c r="G97" s="102"/>
@@ -13863,15 +13865,15 @@
       </c>
       <c r="C98" s="373" cm="1">
         <f t="array" ref="C98">_FV(Valuation!C4,"52 week low",TRUE)</f>
-        <v>329.88</v>
+        <v>401.66</v>
       </c>
       <c r="D98" s="373">
         <f>E98-C98</f>
-        <v>570.52</v>
+        <v>841.82999999999993</v>
       </c>
       <c r="E98" s="374" cm="1">
         <f t="array" ref="E98">_FV(Valuation!C4,"52 week high",TRUE)</f>
-        <v>900.4</v>
+        <v>1243.49</v>
       </c>
       <c r="F98" s="102"/>
       <c r="G98" s="102"/>
@@ -14134,7 +14136,9 @@
   </sheetPr>
   <dimension ref="A1:X194"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -21304,43 +21308,43 @@
       </c>
       <c r="F174" s="129">
         <f>E174+(F181-F180)/F182</f>
-        <v>937.28124540616818</v>
+        <v>935.73844157553765</v>
       </c>
       <c r="G174" s="129">
         <f t="shared" ref="G174:O174" si="117">F174+(G181-G180)/G182</f>
-        <v>941.00406749848844</v>
+        <v>938.11969511948337</v>
       </c>
       <c r="H174" s="129">
         <f t="shared" si="117"/>
-        <v>944.241304100506</v>
+        <v>940.19035037508831</v>
       </c>
       <c r="I174" s="129">
         <f t="shared" si="117"/>
-        <v>947.05629245008652</v>
+        <v>941.99092016257089</v>
       </c>
       <c r="J174" s="129">
         <f t="shared" si="117"/>
-        <v>949.50410840624352</v>
+        <v>943.5566330212514</v>
       </c>
       <c r="K174" s="129">
         <f t="shared" si="117"/>
-        <v>951.63264402029301</v>
+        <v>944.91812246358234</v>
       </c>
       <c r="L174" s="129">
         <f t="shared" si="117"/>
-        <v>953.48354455424908</v>
+        <v>946.10202632647872</v>
       </c>
       <c r="M174" s="129">
         <f t="shared" si="117"/>
-        <v>955.09302327942828</v>
+        <v>947.13150794638864</v>
       </c>
       <c r="N174" s="129">
         <f t="shared" si="117"/>
-        <v>956.49256999697548</v>
+        <v>948.02670935500601</v>
       </c>
       <c r="O174" s="129">
         <f t="shared" si="117"/>
-        <v>957.70956714266867</v>
+        <v>948.80514536249939</v>
       </c>
       <c r="Q174" s="467"/>
     </row>
@@ -21362,43 +21366,43 @@
       </c>
       <c r="F175" s="244">
         <f t="shared" ref="F175:J175" ca="1" si="118">F173/F174</f>
-        <v>2.6771670767819407</v>
+        <v>2.6815810705197025</v>
       </c>
       <c r="G175" s="244">
         <f t="shared" ca="1" si="118"/>
-        <v>4.8554307586723464</v>
+        <v>4.8703594190995245</v>
       </c>
       <c r="H175" s="244">
         <f t="shared" ca="1" si="118"/>
-        <v>9.7440122225864005</v>
+        <v>9.7859957875079662</v>
       </c>
       <c r="I175" s="244">
         <f t="shared" ca="1" si="118"/>
-        <v>16.837021979799111</v>
+        <v>16.927559778747373</v>
       </c>
       <c r="J175" s="244">
         <f t="shared" ca="1" si="118"/>
-        <v>27.515956411234665</v>
+        <v>27.689396422912957</v>
       </c>
       <c r="K175" s="244">
         <f t="shared" ref="K175:O175" ca="1" si="119">K173/K174</f>
-        <v>42.917142298228491</v>
+        <v>43.222108485523712</v>
       </c>
       <c r="L175" s="244">
         <f t="shared" ca="1" si="119"/>
-        <v>66.845178470850044</v>
+        <v>67.366706688305612</v>
       </c>
       <c r="M175" s="244">
         <f t="shared" ca="1" si="119"/>
-        <v>104.33585606047295</v>
+        <v>105.21289532148577</v>
       </c>
       <c r="N175" s="244">
         <f t="shared" ca="1" si="119"/>
-        <v>164.7131888874097</v>
+        <v>166.18407455893674</v>
       </c>
       <c r="O175" s="244">
         <f t="shared" ca="1" si="119"/>
-        <v>264.33930112722692</v>
+        <v>266.82009356581841</v>
       </c>
       <c r="Q175" s="467"/>
     </row>
@@ -21436,43 +21440,43 @@
       </c>
       <c r="F177" s="115">
         <f>F174+E177-E174</f>
-        <v>1087.2812454061682</v>
+        <v>1085.7384415755378</v>
       </c>
       <c r="G177" s="115">
         <f t="shared" ref="G177:O177" si="120">G174+F177-F174</f>
-        <v>1091.0040674984884</v>
+        <v>1088.1196951194834</v>
       </c>
       <c r="H177" s="115">
         <f t="shared" si="120"/>
-        <v>1094.2413041005061</v>
+        <v>1090.1903503750882</v>
       </c>
       <c r="I177" s="115">
         <f t="shared" si="120"/>
-        <v>1097.0562924500864</v>
+        <v>1091.990920162571</v>
       </c>
       <c r="J177" s="115">
         <f t="shared" si="120"/>
-        <v>1099.5041084062436</v>
+        <v>1093.5566330212514</v>
       </c>
       <c r="K177" s="115">
         <f t="shared" si="120"/>
-        <v>1101.6326440202929</v>
+        <v>1094.9181224635822</v>
       </c>
       <c r="L177" s="115">
         <f t="shared" si="120"/>
-        <v>1103.483544554249</v>
+        <v>1096.1020263264786</v>
       </c>
       <c r="M177" s="115">
         <f t="shared" si="120"/>
-        <v>1105.0930232794285</v>
+        <v>1097.1315079463884</v>
       </c>
       <c r="N177" s="115">
         <f t="shared" si="120"/>
-        <v>1106.4925699969756</v>
+        <v>1098.0267093550058</v>
       </c>
       <c r="O177" s="115">
         <f t="shared" si="120"/>
-        <v>1107.7095671426687</v>
+        <v>1098.8051453624992</v>
       </c>
       <c r="Q177" s="51" t="s">
         <v>413</v>
@@ -21496,43 +21500,43 @@
       </c>
       <c r="F178" s="244">
         <f t="shared" ref="F178:J178" ca="1" si="121">F173/F177</f>
-        <v>2.307828358567154</v>
+        <v>2.3111077178453132</v>
       </c>
       <c r="G178" s="244">
         <f t="shared" ca="1" si="121"/>
-        <v>4.1878671486935408</v>
+        <v>4.1989682880119572</v>
       </c>
       <c r="H178" s="244">
         <f t="shared" ca="1" si="121"/>
-        <v>8.4082905422670535</v>
+        <v>8.439534256619206</v>
       </c>
       <c r="I178" s="244">
         <f t="shared" ca="1" si="121"/>
-        <v>14.534903743615008</v>
+        <v>14.602326189411215</v>
       </c>
       <c r="J178" s="244">
         <f t="shared" ca="1" si="121"/>
-        <v>23.762088253645011</v>
+        <v>23.891322013211827</v>
       </c>
       <c r="K178" s="244">
         <f t="shared" ref="K178:O178" ca="1" si="122">K173/K177</f>
-        <v>37.073478006254511</v>
+        <v>37.300828948894072</v>
       </c>
       <c r="L178" s="244">
         <f t="shared" ca="1" si="122"/>
-        <v>57.758702446707971</v>
+        <v>58.147668897533364</v>
       </c>
       <c r="M178" s="244">
         <f t="shared" ca="1" si="122"/>
-        <v>90.173809898397337</v>
+        <v>90.828170989064148</v>
       </c>
       <c r="N178" s="244">
         <f t="shared" ca="1" si="122"/>
-        <v>142.384093326308</v>
+        <v>143.48188437407023</v>
       </c>
       <c r="O178" s="244">
         <f t="shared" ca="1" si="122"/>
-        <v>228.54391184358704</v>
+        <v>230.39597032268509</v>
       </c>
     </row>
     <row r="179" spans="2:17" ht="15" hidden="1" customHeight="1">
@@ -21651,43 +21655,43 @@
       <c r="E182" s="473"/>
       <c r="F182" s="471">
         <f>Valuation!C5</f>
-        <v>680.26</v>
+        <v>1063.51</v>
       </c>
       <c r="G182" s="466">
         <f t="shared" ref="G182:O182" si="124">F182*(1+G183)</f>
-        <v>782.29899999999998</v>
+        <v>1223.0364999999999</v>
       </c>
       <c r="H182" s="466">
         <f t="shared" si="124"/>
-        <v>899.64384999999993</v>
+        <v>1406.4919749999999</v>
       </c>
       <c r="I182" s="466">
         <f t="shared" si="124"/>
-        <v>1034.5904274999998</v>
+        <v>1617.4657712499998</v>
       </c>
       <c r="J182" s="466">
         <f t="shared" si="124"/>
-        <v>1189.7789916249997</v>
+        <v>1860.0856369374997</v>
       </c>
       <c r="K182" s="466">
         <f t="shared" si="124"/>
-        <v>1368.2458403687494</v>
+        <v>2139.0984824781244</v>
       </c>
       <c r="L182" s="466">
         <f t="shared" si="124"/>
-        <v>1573.4827164240617</v>
+        <v>2459.963254849843</v>
       </c>
       <c r="M182" s="466">
         <f t="shared" si="124"/>
-        <v>1809.5051238876708</v>
+        <v>2828.9577430773193</v>
       </c>
       <c r="N182" s="466">
         <f t="shared" si="124"/>
-        <v>2080.9308924708212</v>
+        <v>3253.3014045389168</v>
       </c>
       <c r="O182" s="466">
         <f t="shared" si="124"/>
-        <v>2393.0705263414443</v>
+        <v>3741.2966152197541</v>
       </c>
       <c r="P182" s="466"/>
       <c r="Q182" s="467"/>

--- a/Tesla TSLA.xlsx
+++ b/Tesla TSLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\! Investing-Portfolio\Stock analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CD2632-705E-4076-8822-048B6A4F8423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30680AE9-556C-451B-8DDA-8618D7AB16F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78523A0C-3EFC-4424-BD76-E39280954CB7}"/>
   </bookViews>
@@ -1658,9 +1658,6 @@
     <t>https://www.youtube.com/watch?v=5hPQlSLUCgo&amp;t=25s</t>
   </si>
   <si>
-    <t>"valuation is about telling a story"</t>
-  </si>
-  <si>
     <t>Scenarios</t>
   </si>
   <si>
@@ -1686,6 +1683,9 @@
       </rPr>
       <t xml:space="preserve"> (non millions)</t>
     </r>
+  </si>
+  <si>
+    <t>"valuation is about telling a story" A. Damodaran</t>
   </si>
 </sst>
 </file>
@@ -3924,54 +3924,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="28" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="207" fontId="59" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="207" fontId="59" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="207" fontId="59" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="207" fontId="59" fillId="11" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="59" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="59" fillId="11" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="59" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="198" fontId="59" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="175" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4039,26 +3991,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="28" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="207" fontId="59" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="207" fontId="59" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="207" fontId="59" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="207" fontId="59" fillId="11" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="198" fontId="59" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="198" fontId="59" fillId="11" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="59" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="59" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4088,6 +4067,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="38" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4390,10 +4390,10 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>819.07160456841393</c:v>
+                  <c:v>819.07303366463668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577.62745107610795</c:v>
+                  <c:v>577.62845602372659</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>401.66</c:v>
@@ -4451,10 +4451,10 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>118.06988989173908</c:v>
+                  <c:v>118.07009731930088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>446.04209375516734</c:v>
+                  <c:v>446.04287734555601</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>841.82999999999993</c:v>
@@ -4532,10 +4532,10 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>937.14149446015301</c:v>
+                  <c:v>937.14313098393757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1023.6695448312753</c:v>
+                  <c:v>1023.6713333692826</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1243.49</c:v>
@@ -4953,7 +4953,7 @@
     <v>990015100</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>420578</v>
+    <v>442725</v>
     <v>30694028</v>
     <v>2003</v>
   </rv>
@@ -5517,7 +5517,7 @@
   <dimension ref="A1:X124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5583,14 +5583,14 @@
         <f>C8</f>
         <v>Base case</v>
       </c>
-      <c r="L3" s="479" t="s">
+      <c r="L3" s="504" t="s">
         <v>402</v>
       </c>
-      <c r="M3" s="480"/>
-      <c r="N3" s="485" t="s">
+      <c r="M3" s="505"/>
+      <c r="N3" s="510" t="s">
         <v>409</v>
       </c>
-      <c r="O3" s="486"/>
+      <c r="O3" s="511"/>
     </row>
     <row r="4" spans="1:23" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="B4" s="102" t="s">
@@ -5605,48 +5605,48 @@
       <c r="G4" s="13"/>
       <c r="H4" s="420"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="508" t="s">
+      <c r="K4" s="492" t="s">
         <v>408</v>
       </c>
-      <c r="L4" s="481">
+      <c r="L4" s="506">
         <f ca="1">DCF!C70</f>
-        <v>864468.28622242948</v>
-      </c>
-      <c r="M4" s="482"/>
-      <c r="N4" s="487">
+        <v>864469.7951709613</v>
+      </c>
+      <c r="M4" s="507"/>
+      <c r="N4" s="512">
         <f ca="1">DCF!C72</f>
-        <v>873.1869708072428</v>
-      </c>
-      <c r="O4" s="488"/>
+        <v>873.18849497443148</v>
+      </c>
+      <c r="O4" s="513"/>
     </row>
     <row r="5" spans="1:23" s="51" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="501" cm="1">
+      <c r="C5" s="485" cm="1">
         <f t="array" ref="C5">_FV(C4,"Price")</f>
         <v>1063.51</v>
       </c>
-      <c r="D5" s="501"/>
+      <c r="D5" s="485"/>
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="K5" s="509"/>
-      <c r="L5" s="483"/>
-      <c r="M5" s="484"/>
-      <c r="N5" s="489"/>
-      <c r="O5" s="490"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="508"/>
+      <c r="M5" s="509"/>
+      <c r="N5" s="514"/>
+      <c r="O5" s="515"/>
     </row>
     <row r="6" spans="1:23" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="B6" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="502">
+      <c r="C6" s="486">
         <f>IS!L2</f>
         <v>44196</v>
       </c>
-      <c r="D6" s="502"/>
+      <c r="D6" s="486"/>
       <c r="E6" s="102"/>
       <c r="F6" s="102"/>
       <c r="G6" s="13"/>
@@ -5657,34 +5657,34 @@
       <c r="B7" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="503" cm="1">
+      <c r="C7" s="487" cm="1">
         <f t="array" ref="C7">_FV(C4,"Shares outstanding",TRUE)*1/1000000</f>
         <v>990.01509999999996</v>
       </c>
-      <c r="D7" s="503"/>
+      <c r="D7" s="487"/>
       <c r="E7" s="102" t="s">
         <v>185</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="K7" s="513" t="s">
-        <v>415</v>
-      </c>
-      <c r="L7" s="514"/>
-      <c r="M7" s="514"/>
-      <c r="N7" s="514"/>
-      <c r="O7" s="515"/>
+      <c r="K7" s="497" t="s">
+        <v>417</v>
+      </c>
+      <c r="L7" s="498"/>
+      <c r="M7" s="498"/>
+      <c r="N7" s="498"/>
+      <c r="O7" s="499"/>
       <c r="T7" s="136"/>
     </row>
     <row r="8" spans="1:23" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="504" t="s">
+      <c r="C8" s="488" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="505"/>
+      <c r="D8" s="489"/>
       <c r="E8" s="211"/>
       <c r="F8" s="212" t="s">
         <v>311</v>
@@ -5693,13 +5693,13 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="510" t="s">
+      <c r="K8" s="494" t="s">
         <v>414</v>
       </c>
-      <c r="L8" s="511"/>
-      <c r="M8" s="511"/>
-      <c r="N8" s="511"/>
-      <c r="O8" s="512"/>
+      <c r="L8" s="495"/>
+      <c r="M8" s="495"/>
+      <c r="N8" s="495"/>
+      <c r="O8" s="496"/>
       <c r="T8" s="136"/>
     </row>
     <row r="9" spans="1:23" s="108" customFormat="1" ht="15" customHeight="1">
@@ -5714,7 +5714,7 @@
     </row>
     <row r="10" spans="1:23" s="51" customFormat="1" ht="15.75" thickBot="1">
       <c r="B10" s="56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -5787,10 +5787,10 @@
         <v>2030</v>
       </c>
       <c r="T11" s="136"/>
-      <c r="U11" s="497" t="s">
+      <c r="U11" s="481" t="s">
         <v>298</v>
       </c>
-      <c r="V11" s="498"/>
+      <c r="V11" s="482"/>
     </row>
     <row r="12" spans="1:23" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="475"/>
@@ -5847,8 +5847,8 @@
         <v>47848</v>
       </c>
       <c r="T12" s="136"/>
-      <c r="U12" s="499"/>
-      <c r="V12" s="500"/>
+      <c r="U12" s="483"/>
+      <c r="V12" s="484"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
       <c r="B13" s="255"/>
@@ -6467,10 +6467,10 @@
       <c r="Q24" s="421" t="s">
         <v>287</v>
       </c>
-      <c r="R24" s="506" t="s">
+      <c r="R24" s="490" t="s">
         <v>410</v>
       </c>
-      <c r="S24" s="507"/>
+      <c r="S24" s="491"/>
       <c r="T24" s="169"/>
       <c r="U24" s="55" t="s">
         <v>403</v>
@@ -6583,10 +6583,10 @@
       <c r="R26" s="136"/>
       <c r="S26" s="145"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="495" t="s">
+      <c r="U26" s="479" t="s">
         <v>184</v>
       </c>
-      <c r="V26" s="496"/>
+      <c r="V26" s="480"/>
       <c r="W26" s="70"/>
       <c r="X26" s="70"/>
     </row>
@@ -6788,11 +6788,11 @@
       <c r="Q30" s="386" t="s">
         <v>254</v>
       </c>
-      <c r="R30" s="493">
+      <c r="R30" s="477">
         <f>(O30/E15)^(1/COLUMNS(F30:O30))-1</f>
         <v>1.7473972860599929E-2</v>
       </c>
-      <c r="S30" s="494"/>
+      <c r="S30" s="478"/>
       <c r="T30" s="382"/>
       <c r="U30" s="295">
         <v>2</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="57" spans="2:20" ht="15" customHeight="1">
       <c r="B57" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C57" s="251">
         <f>C11</f>
@@ -8127,11 +8127,11 @@
       </c>
       <c r="P60" s="13"/>
       <c r="Q60" s="319"/>
-      <c r="R60" s="491">
+      <c r="R60" s="500">
         <f>(O60/$E$61)^(1/COLUMNS(F60:O60))-1</f>
         <v>0.44612554959192474</v>
       </c>
-      <c r="S60" s="492"/>
+      <c r="S60" s="501"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1">
@@ -8189,11 +8189,11 @@
       </c>
       <c r="P61" s="155"/>
       <c r="Q61" s="398"/>
-      <c r="R61" s="491">
+      <c r="R61" s="500">
         <f t="shared" ref="R61:R62" si="27">(O61/$E$61)^(1/COLUMNS(F61:O61))-1</f>
         <v>0.39339795896176843</v>
       </c>
-      <c r="S61" s="492"/>
+      <c r="S61" s="501"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1">
@@ -8242,11 +8242,11 @@
       </c>
       <c r="P62" s="13"/>
       <c r="Q62" s="319"/>
-      <c r="R62" s="491">
+      <c r="R62" s="500">
         <f t="shared" si="27"/>
         <v>0.31258421495011124</v>
       </c>
-      <c r="S62" s="492"/>
+      <c r="S62" s="501"/>
       <c r="T62" s="13"/>
     </row>
     <row r="63" spans="2:20" s="136" customFormat="1" ht="15" customHeight="1">
@@ -8316,11 +8316,11 @@
       </c>
       <c r="P64" s="102"/>
       <c r="Q64" s="211"/>
-      <c r="R64" s="491">
+      <c r="R64" s="500">
         <f>(O64/$E$65)^(1/COLUMNS(F64:O64))-1</f>
         <v>-5.3015655436052467E-2</v>
       </c>
-      <c r="S64" s="492"/>
+      <c r="S64" s="501"/>
       <c r="T64" s="13"/>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1">
@@ -8372,11 +8372,11 @@
       </c>
       <c r="P65" s="155"/>
       <c r="Q65" s="399"/>
-      <c r="R65" s="491">
+      <c r="R65" s="500">
         <f t="shared" ref="R65" si="31">(O65/$E$65)^(1/COLUMNS(F65:O65))-1</f>
         <v>-3.7832039152811192E-2</v>
       </c>
-      <c r="S65" s="492"/>
+      <c r="S65" s="501"/>
       <c r="T65" s="13"/>
     </row>
     <row r="66" spans="1:24" ht="15" customHeight="1">
@@ -8428,11 +8428,11 @@
       </c>
       <c r="P66" s="102"/>
       <c r="Q66" s="211"/>
-      <c r="R66" s="491">
+      <c r="R66" s="500">
         <f>(O66/$E$65)^(1/COLUMNS(F66:O66))-1</f>
         <v>-2.4540011273535223E-2</v>
       </c>
-      <c r="S66" s="492"/>
+      <c r="S66" s="501"/>
       <c r="T66" s="102"/>
       <c r="W66" s="102"/>
       <c r="X66" s="102"/>
@@ -8842,10 +8842,10 @@
       </c>
       <c r="P76" s="396"/>
       <c r="Q76" s="404"/>
-      <c r="R76" s="477">
+      <c r="R76" s="502">
         <v>0.4</v>
       </c>
-      <c r="S76" s="478"/>
+      <c r="S76" s="503"/>
       <c r="T76" s="13"/>
       <c r="W76" s="136"/>
     </row>
@@ -8892,10 +8892,10 @@
       </c>
       <c r="P77" s="397"/>
       <c r="Q77" s="405"/>
-      <c r="R77" s="477">
+      <c r="R77" s="502">
         <v>0.45</v>
       </c>
-      <c r="S77" s="478"/>
+      <c r="S77" s="503"/>
       <c r="T77" s="194"/>
       <c r="U77" s="136"/>
       <c r="V77" s="136"/>
@@ -8936,10 +8936,10 @@
       </c>
       <c r="P78" s="396"/>
       <c r="Q78" s="404"/>
-      <c r="R78" s="477">
+      <c r="R78" s="502">
         <v>0.5</v>
       </c>
-      <c r="S78" s="478"/>
+      <c r="S78" s="503"/>
       <c r="T78" s="194"/>
       <c r="U78" s="136"/>
       <c r="V78" s="136"/>
@@ -9009,11 +9009,11 @@
       </c>
       <c r="P80" s="194"/>
       <c r="Q80" s="319"/>
-      <c r="R80" s="491">
+      <c r="R80" s="500">
         <f>(O80/$G$80)^(1/COLUMNS(H80:O80))-1</f>
         <v>-0.22617446137231945</v>
       </c>
-      <c r="S80" s="492"/>
+      <c r="S80" s="501"/>
       <c r="T80" s="13"/>
     </row>
     <row r="81" spans="2:20">
@@ -9053,11 +9053,11 @@
       </c>
       <c r="P81" s="194"/>
       <c r="Q81" s="319"/>
-      <c r="R81" s="491">
+      <c r="R81" s="500">
         <f>(O81/$H$81)^(1/COLUMNS(I81:O81))-1</f>
         <v>-0.22583143004139017</v>
       </c>
-      <c r="S81" s="492"/>
+      <c r="S81" s="501"/>
       <c r="T81" s="13"/>
     </row>
     <row r="82" spans="2:20">
@@ -9095,11 +9095,11 @@
       </c>
       <c r="P82" s="383"/>
       <c r="Q82" s="319"/>
-      <c r="R82" s="491">
+      <c r="R82" s="500">
         <f>(O82/$J$82)^(1/COLUMNS(K82:O82))-1</f>
         <v>-0.27522033632230447</v>
       </c>
-      <c r="S82" s="492"/>
+      <c r="S82" s="501"/>
       <c r="T82" s="13"/>
     </row>
     <row r="83" spans="2:20" s="136" customFormat="1">
@@ -9169,11 +9169,11 @@
       </c>
       <c r="P84" s="13"/>
       <c r="Q84" s="319"/>
-      <c r="R84" s="491">
+      <c r="R84" s="500">
         <f>(O84/$F$85)^(1/COLUMNS(G84:O84))-1</f>
         <v>5.3610276890664554E-2</v>
       </c>
-      <c r="S84" s="492"/>
+      <c r="S84" s="501"/>
       <c r="T84" s="13"/>
     </row>
     <row r="85" spans="2:20">
@@ -9226,11 +9226,11 @@
       </c>
       <c r="P85" s="13"/>
       <c r="Q85" s="319"/>
-      <c r="R85" s="491">
+      <c r="R85" s="500">
         <f>(O85/$F$85)^(1/COLUMNS(G85:O85))-1</f>
         <v>3.809344426552097E-2</v>
       </c>
-      <c r="S85" s="492"/>
+      <c r="S85" s="501"/>
       <c r="T85" s="13"/>
     </row>
     <row r="86" spans="2:20">
@@ -9277,11 +9277,11 @@
       </c>
       <c r="P86" s="13"/>
       <c r="Q86" s="319"/>
-      <c r="R86" s="491">
+      <c r="R86" s="500">
         <f>(O86/$F$85)^(1/COLUMNS(G86:O86))-1</f>
         <v>2.046453567684825E-2</v>
       </c>
-      <c r="S86" s="492"/>
+      <c r="S86" s="501"/>
       <c r="T86" s="13"/>
     </row>
     <row r="87" spans="2:20" s="136" customFormat="1">
@@ -9353,11 +9353,11 @@
       </c>
       <c r="P88" s="13"/>
       <c r="Q88" s="319"/>
-      <c r="R88" s="491">
+      <c r="R88" s="500">
         <f>(O88/$F$88)^(1/COLUMNS(G88:O88))-1</f>
         <v>5.840007284126747E-2</v>
       </c>
-      <c r="S88" s="492"/>
+      <c r="S88" s="501"/>
       <c r="T88" s="13"/>
     </row>
     <row r="89" spans="2:20">
@@ -9406,11 +9406,11 @@
       </c>
       <c r="P89" s="13"/>
       <c r="Q89" s="319"/>
-      <c r="R89" s="491">
+      <c r="R89" s="500">
         <f>(O89/$F$89)^(1/COLUMNS(G89:O89))-1</f>
         <v>3.24810319761204E-2</v>
       </c>
-      <c r="S89" s="492"/>
+      <c r="S89" s="501"/>
       <c r="T89" s="13"/>
     </row>
     <row r="90" spans="2:20">
@@ -9460,11 +9460,11 @@
       </c>
       <c r="P90" s="13"/>
       <c r="Q90" s="319"/>
-      <c r="R90" s="491">
+      <c r="R90" s="500">
         <f>(O90/$F$90)^(1/COLUMNS(G90:O90))-1</f>
         <v>-2.0054137073244327E-2</v>
       </c>
-      <c r="S90" s="492"/>
+      <c r="S90" s="501"/>
       <c r="T90" s="13"/>
     </row>
     <row r="91" spans="2:20" s="136" customFormat="1">
@@ -9539,11 +9539,11 @@
       </c>
       <c r="P92" s="14"/>
       <c r="Q92" s="319"/>
-      <c r="R92" s="491">
+      <c r="R92" s="500">
         <f>(O92/$F$93)^(1/COLUMNS(G92:O92))-1</f>
         <v>0.35106675160177092</v>
       </c>
-      <c r="S92" s="492"/>
+      <c r="S92" s="501"/>
       <c r="T92" s="221"/>
     </row>
     <row r="93" spans="2:20" s="136" customFormat="1">
@@ -9595,11 +9595,11 @@
       </c>
       <c r="P93" s="14"/>
       <c r="Q93" s="319"/>
-      <c r="R93" s="491">
+      <c r="R93" s="500">
         <f>(O93/$F$93)^(1/COLUMNS(G93:O93))-1</f>
         <v>0.3179806292130023</v>
       </c>
-      <c r="S93" s="492"/>
+      <c r="S93" s="501"/>
       <c r="T93" s="221"/>
     </row>
     <row r="94" spans="2:20" s="136" customFormat="1" ht="15" customHeight="1">
@@ -9651,11 +9651,11 @@
       </c>
       <c r="P94" s="14"/>
       <c r="Q94" s="319"/>
-      <c r="R94" s="491">
+      <c r="R94" s="500">
         <f>(O94/$F$93)^(1/COLUMNS(G94:O94))-1</f>
         <v>0.27651800700924167</v>
       </c>
-      <c r="S94" s="492"/>
+      <c r="S94" s="501"/>
       <c r="T94" s="221"/>
     </row>
     <row r="95" spans="2:20" s="136" customFormat="1">
@@ -9709,10 +9709,10 @@
       </c>
       <c r="P95" s="14"/>
       <c r="Q95" s="319"/>
-      <c r="R95" s="477">
+      <c r="R95" s="502">
         <v>-0.02</v>
       </c>
-      <c r="S95" s="478"/>
+      <c r="S95" s="503"/>
       <c r="T95" s="13"/>
     </row>
     <row r="96" spans="2:20" s="136" customFormat="1">
@@ -9771,10 +9771,10 @@
       </c>
       <c r="P97" s="14"/>
       <c r="Q97" s="319"/>
-      <c r="R97" s="477">
+      <c r="R97" s="502">
         <v>-0.03</v>
       </c>
-      <c r="S97" s="478"/>
+      <c r="S97" s="503"/>
       <c r="T97" s="13"/>
     </row>
     <row r="98" spans="2:20" s="136" customFormat="1" ht="15" customHeight="1">
@@ -9822,10 +9822,10 @@
       </c>
       <c r="P98" s="14"/>
       <c r="Q98" s="319"/>
-      <c r="R98" s="477">
+      <c r="R98" s="502">
         <v>-0.02</v>
       </c>
-      <c r="S98" s="478"/>
+      <c r="S98" s="503"/>
       <c r="T98" s="13"/>
     </row>
     <row r="99" spans="2:20" s="136" customFormat="1">
@@ -9874,10 +9874,10 @@
       </c>
       <c r="P99" s="14"/>
       <c r="Q99" s="319"/>
-      <c r="R99" s="477">
+      <c r="R99" s="502">
         <v>-0.01</v>
       </c>
-      <c r="S99" s="478"/>
+      <c r="S99" s="503"/>
       <c r="T99" s="13"/>
     </row>
     <row r="100" spans="2:20" s="136" customFormat="1">
@@ -9936,11 +9936,11 @@
       </c>
       <c r="P101" s="14"/>
       <c r="Q101" s="319"/>
-      <c r="R101" s="491">
+      <c r="R101" s="500">
         <f>(O101/E102)^(1/COLUMNS(F101:O101))-1</f>
         <v>0.86164556663606939</v>
       </c>
-      <c r="S101" s="492"/>
+      <c r="S101" s="501"/>
       <c r="T101" s="13"/>
     </row>
     <row r="102" spans="2:20" s="136" customFormat="1" ht="15" customHeight="1">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="P102" s="14"/>
       <c r="Q102" s="319"/>
-      <c r="R102" s="491">
+      <c r="R102" s="500">
         <f>(O102/E102)^(1/COLUMNS(F102:O102))-1</f>
         <v>0.82801129914214289</v>
       </c>
-      <c r="S102" s="492"/>
+      <c r="S102" s="501"/>
       <c r="T102" s="13"/>
     </row>
     <row r="103" spans="2:20" s="136" customFormat="1">
@@ -10044,11 +10044,11 @@
       </c>
       <c r="P103" s="14"/>
       <c r="Q103" s="319"/>
-      <c r="R103" s="491">
+      <c r="R103" s="500">
         <f>(O103/E102)^(1/COLUMNS(F103:O103))-1</f>
         <v>0.78767215069783125</v>
       </c>
-      <c r="S103" s="492"/>
+      <c r="S103" s="501"/>
       <c r="T103" s="13"/>
     </row>
     <row r="104" spans="2:20" s="136" customFormat="1">
@@ -10107,11 +10107,11 @@
       </c>
       <c r="P105" s="13"/>
       <c r="Q105" s="319"/>
-      <c r="R105" s="491">
+      <c r="R105" s="500">
         <f>(O105/F105)^(1/COLUMNS(G105:O105))-1</f>
         <v>0.10717317888991107</v>
       </c>
-      <c r="S105" s="492"/>
+      <c r="S105" s="501"/>
       <c r="T105" s="13"/>
     </row>
     <row r="106" spans="2:20" ht="15" customHeight="1">
@@ -10159,11 +10159,11 @@
       </c>
       <c r="P106" s="13"/>
       <c r="Q106" s="319"/>
-      <c r="R106" s="491">
+      <c r="R106" s="500">
         <f t="shared" ref="R106:R107" si="60">(O106/F106)^(1/COLUMNS(G106:O106))-1</f>
         <v>6.7489499388194485E-2</v>
       </c>
-      <c r="S106" s="492"/>
+      <c r="S106" s="501"/>
       <c r="T106" s="13"/>
     </row>
     <row r="107" spans="2:20" ht="15" customHeight="1">
@@ -10210,11 +10210,11 @@
       </c>
       <c r="P107" s="13"/>
       <c r="Q107" s="319"/>
-      <c r="R107" s="491">
+      <c r="R107" s="500">
         <f t="shared" si="60"/>
         <v>1.0646292707510829E-2</v>
       </c>
-      <c r="S107" s="492"/>
+      <c r="S107" s="501"/>
       <c r="T107" s="13"/>
     </row>
     <row r="108" spans="2:20">
@@ -10547,10 +10547,10 @@
       </c>
       <c r="P117" s="13"/>
       <c r="Q117" s="319"/>
-      <c r="R117" s="477">
+      <c r="R117" s="502">
         <v>-0.05</v>
       </c>
-      <c r="S117" s="478"/>
+      <c r="S117" s="503"/>
       <c r="T117" s="13"/>
     </row>
     <row r="118" spans="2:20">
@@ -10610,10 +10610,10 @@
       </c>
       <c r="P118" s="13"/>
       <c r="Q118" s="319"/>
-      <c r="R118" s="477">
+      <c r="R118" s="502">
         <v>-0.02</v>
       </c>
-      <c r="S118" s="478"/>
+      <c r="S118" s="503"/>
       <c r="T118" s="13"/>
     </row>
     <row r="119" spans="2:20">
@@ -10664,10 +10664,10 @@
       </c>
       <c r="P119" s="13"/>
       <c r="Q119" s="319"/>
-      <c r="R119" s="477">
+      <c r="R119" s="502">
         <v>0.01</v>
       </c>
-      <c r="S119" s="478"/>
+      <c r="S119" s="503"/>
       <c r="T119" s="13"/>
     </row>
     <row r="120" spans="2:20">
@@ -10837,39 +10837,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="R89:S89"/>
-    <mergeCell ref="R90:S90"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="R94:S94"/>
     <mergeCell ref="R117:S117"/>
     <mergeCell ref="R118:S118"/>
     <mergeCell ref="R119:S119"/>
@@ -10886,6 +10853,39 @@
     <mergeCell ref="R78:S78"/>
     <mergeCell ref="R95:S95"/>
     <mergeCell ref="R97:S97"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="R89:S89"/>
+    <mergeCell ref="R90:S90"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="B52">
     <cfRule type="expression" dxfId="11" priority="9">
@@ -10992,11 +10992,11 @@
       <c r="B3" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="519">
+      <c r="C3" s="529">
         <f>Valuation!C6</f>
         <v>44196</v>
       </c>
-      <c r="D3" s="519"/>
+      <c r="D3" s="529"/>
       <c r="F3" s="249" t="s">
         <v>405</v>
       </c>
@@ -11007,24 +11007,24 @@
         <f>Valuation!C8</f>
         <v>Base case</v>
       </c>
-      <c r="K3" s="531" t="s">
+      <c r="K3" s="524" t="s">
         <v>402</v>
       </c>
-      <c r="L3" s="532"/>
-      <c r="M3" s="523" t="s">
+      <c r="L3" s="525"/>
+      <c r="M3" s="516" t="s">
         <v>409</v>
       </c>
-      <c r="N3" s="524"/>
+      <c r="N3" s="517"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="249" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="520">
+      <c r="C4" s="530">
         <f>EOMONTH(C3,12)</f>
         <v>44561</v>
       </c>
-      <c r="D4" s="520"/>
+      <c r="D4" s="530"/>
       <c r="F4" s="249" t="s">
         <v>394</v>
       </c>
@@ -11032,46 +11032,46 @@
         <f>Valuation!C5</f>
         <v>1063.51</v>
       </c>
-      <c r="J4" s="525" t="s">
+      <c r="J4" s="518" t="s">
         <v>408</v>
       </c>
-      <c r="K4" s="526">
+      <c r="K4" s="519">
         <f ca="1">Valuation!L4</f>
-        <v>864468.28622242948</v>
-      </c>
-      <c r="L4" s="527"/>
-      <c r="M4" s="487">
+        <v>864469.7951709613</v>
+      </c>
+      <c r="L4" s="520"/>
+      <c r="M4" s="512">
         <f ca="1">Valuation!N4</f>
-        <v>873.1869708072428</v>
-      </c>
-      <c r="N4" s="528"/>
+        <v>873.18849497443148</v>
+      </c>
+      <c r="N4" s="521"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="249" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="521">
+      <c r="C5" s="531">
         <v>44377</v>
       </c>
-      <c r="D5" s="521"/>
+      <c r="D5" s="531"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="J5" s="509"/>
-      <c r="K5" s="483"/>
-      <c r="L5" s="484"/>
-      <c r="M5" s="489"/>
-      <c r="N5" s="490"/>
+      <c r="J5" s="493"/>
+      <c r="K5" s="508"/>
+      <c r="L5" s="509"/>
+      <c r="M5" s="514"/>
+      <c r="N5" s="515"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1">
       <c r="B6" s="249" t="s">
         <v>339</v>
       </c>
-      <c r="C6" s="520">
+      <c r="C6" s="530">
         <f ca="1">NOW()</f>
-        <v>44512.618132523145</v>
-      </c>
-      <c r="D6" s="522"/>
+        <v>44512.622720601852</v>
+      </c>
+      <c r="D6" s="532"/>
       <c r="F6" s="249" t="s">
         <v>340</v>
       </c>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="C11" s="117">
         <f ca="1">C6</f>
-        <v>44512.618132523145</v>
+        <v>44512.622720601852</v>
       </c>
       <c r="D11" s="117">
         <f>C3</f>
@@ -12149,11 +12149,11 @@
       <c r="C36" s="57"/>
       <c r="D36" s="380">
         <f ca="1">C6</f>
-        <v>44512.618132523145</v>
+        <v>44512.622720601852</v>
       </c>
       <c r="E36" s="380">
         <f ca="1">IF($H$6=1,AVERAGE(E11,D36),E11)</f>
-        <v>44536.809066261572</v>
+        <v>44536.811360300926</v>
       </c>
       <c r="F36" s="380">
         <f>IF($H$6=1,AVERAGE(F11,E11),F11)</f>
@@ -12249,43 +12249,43 @@
       <c r="D38" s="331"/>
       <c r="E38" s="331">
         <f ca="1">E37/(1+$H$3)^((E36-$C$6)/365)</f>
-        <v>296.69474179288017</v>
+        <v>296.69500241241627</v>
       </c>
       <c r="F38" s="331">
         <f ca="1">F37/(1+$H$3)^((F36-$C$6)/365)</f>
-        <v>3458.4975889754396</v>
+        <v>3458.5036649336967</v>
       </c>
       <c r="G38" s="331">
         <f ca="1">G37/(1+$H$3)^((G36-$C$6)/365)</f>
-        <v>6314.7908417971548</v>
+        <v>6314.8019357489566</v>
       </c>
       <c r="H38" s="331">
         <f ca="1">H37/(1+$H$3)^((H36-$C$6)/365)</f>
-        <v>9290.0079556867859</v>
+        <v>9290.0242765599687</v>
       </c>
       <c r="I38" s="331">
         <f ca="1">I37/(1+$H$3)^((I36-$C$6)/365)</f>
-        <v>13328.644990809644</v>
+        <v>13328.668406841753</v>
       </c>
       <c r="J38" s="331">
         <f t="shared" ref="J38:N38" ca="1" si="22">J37/(1+$H$3)^((J36-$C$6)/365)</f>
-        <v>18407.692597481731</v>
+        <v>18407.724936487026</v>
       </c>
       <c r="K38" s="331">
         <f t="shared" ca="1" si="22"/>
-        <v>25572.528630461904</v>
+        <v>25572.57355679552</v>
       </c>
       <c r="L38" s="331">
         <f t="shared" ca="1" si="22"/>
-        <v>35615.461751398092</v>
+        <v>35615.524321358993</v>
       </c>
       <c r="M38" s="331">
         <f t="shared" ca="1" si="22"/>
-        <v>50297.581247878748</v>
+        <v>50297.669611683035</v>
       </c>
       <c r="N38" s="331">
         <f t="shared" ca="1" si="22"/>
-        <v>72675.692439250124</v>
+        <v>72675.820117371113</v>
       </c>
       <c r="O38" s="303"/>
     </row>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="C44" s="325">
         <f ca="1">C43/(1+H3)^((N36-$D$36)/365)</f>
-        <v>623799.69343689701</v>
+        <v>623800.78934076882</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
@@ -12413,7 +12413,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="325">
         <f ca="1">I43/(1+H3)^((N36-D36)/365)</f>
-        <v>551985.51013302</v>
+        <v>551986.47987228737</v>
       </c>
       <c r="J44" s="325"/>
       <c r="K44" s="325"/>
@@ -12428,7 +12428,7 @@
       </c>
       <c r="C45" s="325">
         <f ca="1">SUM(E38:N38)</f>
-        <v>235257.5927855325</v>
+        <v>235258.00583019247</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
@@ -12439,7 +12439,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="325">
         <f ca="1">C45</f>
-        <v>235257.5927855325</v>
+        <v>235258.00583019247</v>
       </c>
       <c r="J45" s="325"/>
       <c r="K45" s="325"/>
@@ -12454,7 +12454,7 @@
       </c>
       <c r="C46" s="331">
         <f ca="1">C45+C44</f>
-        <v>859057.28622242948</v>
+        <v>859058.7951709613</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="151" t="s">
@@ -12465,7 +12465,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="331">
         <f ca="1">SUM(I44:I45)</f>
-        <v>787243.10291855247</v>
+        <v>787244.48570247984</v>
       </c>
       <c r="J46" s="331"/>
       <c r="K46" s="331"/>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="C48" s="141">
         <f ca="1">C44/$C$46</f>
-        <v>0.72614446491683804</v>
+        <v>0.72614446513713449</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="333" t="s">
@@ -12506,7 +12506,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="141">
         <f ca="1">+I44/I46</f>
-        <v>0.70116271338121583</v>
+        <v>0.70116271361333793</v>
       </c>
       <c r="J48" s="141"/>
       <c r="K48" s="141"/>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="C49" s="141">
         <f ca="1">1-C48</f>
-        <v>0.27385553508316196</v>
+        <v>0.27385553486286551</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="333" t="s">
@@ -12532,7 +12532,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="159">
         <f ca="1">1-I48</f>
-        <v>0.29883728661878417</v>
+        <v>0.29883728638666207</v>
       </c>
       <c r="J49" s="159"/>
       <c r="K49" s="159"/>
@@ -12892,11 +12892,11 @@
       </c>
       <c r="C68" s="438">
         <f ca="1">C46</f>
-        <v>859057.28622242948</v>
+        <v>859058.7951709613</v>
       </c>
       <c r="D68" s="439">
         <f ca="1">I46</f>
-        <v>787243.10291855247</v>
+        <v>787244.48570247984</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
@@ -12952,11 +12952,11 @@
       </c>
       <c r="C70" s="439">
         <f ca="1">C68-C69</f>
-        <v>864468.28622242948</v>
+        <v>864469.7951709613</v>
       </c>
       <c r="D70" s="439">
         <f ca="1">D68-D69</f>
-        <v>792654.10291855247</v>
+        <v>792655.48570247984</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="151" t="s">
@@ -12964,19 +12964,19 @@
       </c>
       <c r="G70" s="347">
         <f ca="1">C68/$C$13</f>
-        <v>22.418107829118547</v>
+        <v>22.418147206900958</v>
       </c>
       <c r="H70" s="347">
         <f ca="1">D68/$C$13</f>
-        <v>20.544032455116596</v>
+        <v>20.544068540485625</v>
       </c>
       <c r="I70" s="347">
         <f ca="1">C68/$E$13</f>
-        <v>21.809781627139987</v>
+        <v>21.809819936387221</v>
       </c>
       <c r="J70" s="347">
         <f ca="1">D68/$E$13</f>
-        <v>19.986560195102193</v>
+        <v>19.986595301277273</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
@@ -13002,19 +13002,19 @@
       </c>
       <c r="G71" s="348">
         <f ca="1">C68/$C$15</f>
-        <v>120.10879928623163</v>
+        <v>120.1090102593521</v>
       </c>
       <c r="H71" s="348">
         <f ca="1">D68/$C$15</f>
-        <v>110.06812392419684</v>
+        <v>110.0683172576565</v>
       </c>
       <c r="I71" s="348">
         <f ca="1">C68/$E$15</f>
-        <v>112.94495613726663</v>
+        <v>112.94515452697647</v>
       </c>
       <c r="J71" s="348">
         <f ca="1">D68/$E$15</f>
-        <v>103.50315299634096</v>
+        <v>103.50333479850076</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
@@ -13028,11 +13028,11 @@
       </c>
       <c r="C72" s="442">
         <f ca="1">C70/C71</f>
-        <v>873.1869708072428</v>
+        <v>873.18849497443148</v>
       </c>
       <c r="D72" s="442">
         <f ca="1">D70/D71</f>
-        <v>800.64849810730414</v>
+        <v>800.64989483744228</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="331" t="s">
@@ -13040,19 +13040,19 @@
       </c>
       <c r="G72" s="348">
         <f ca="1">C68/$C$17</f>
-        <v>224.46247735937771</v>
+        <v>224.46287163148401</v>
       </c>
       <c r="H72" s="348">
         <f ca="1">D68/$C$17</f>
-        <v>205.69819964186709</v>
+        <v>205.69856094851212</v>
       </c>
       <c r="I72" s="348">
         <f ca="1">C68/$E$17</f>
-        <v>208.36851896015</v>
+        <v>208.36888496294844</v>
       </c>
       <c r="J72" s="348">
         <f ca="1">D68/$E$17</f>
-        <v>190.94963985237521</v>
+        <v>190.94997525333579</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
@@ -13103,12 +13103,12 @@
     </row>
     <row r="75" spans="1:24" ht="17.25" customHeight="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="518" t="s">
+      <c r="B75" s="528" t="s">
         <v>389</v>
       </c>
-      <c r="C75" s="518"/>
-      <c r="D75" s="518"/>
-      <c r="E75" s="518"/>
+      <c r="C75" s="528"/>
+      <c r="D75" s="528"/>
+      <c r="E75" s="528"/>
       <c r="F75" s="13"/>
       <c r="G75" s="151"/>
       <c r="H75" s="443" t="s">
@@ -13139,14 +13139,14 @@
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
-      <c r="H76" s="530" t="s">
+      <c r="H76" s="523" t="s">
         <v>358</v>
       </c>
-      <c r="I76" s="530"/>
-      <c r="J76" s="530"/>
-      <c r="K76" s="530"/>
-      <c r="L76" s="530"/>
-      <c r="M76" s="530"/>
+      <c r="I76" s="523"/>
+      <c r="J76" s="523"/>
+      <c r="K76" s="523"/>
+      <c r="L76" s="523"/>
+      <c r="M76" s="523"/>
       <c r="N76" s="13"/>
       <c r="O76"/>
       <c r="P76"/>
@@ -13169,7 +13169,7 @@
       <c r="G77" s="360"/>
       <c r="H77" s="444">
         <f ca="1">C72</f>
-        <v>873.1869708072428</v>
+        <v>873.18849497443148</v>
       </c>
       <c r="I77" s="445">
         <f>J77-0.005</f>
@@ -13209,7 +13209,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="517" t="str">
+      <c r="G78" s="527" t="str">
         <f>$F$3</f>
         <v>Discount Rate</v>
       </c>
@@ -13219,19 +13219,19 @@
       </c>
       <c r="I78" s="357">
         <f t="dataTable" ref="I78:M82" dt2D="1" dtr="1" r1="C41" r2="H3" ca="1"/>
-        <v>647.6147176259135</v>
+        <v>647.6159846448802</v>
       </c>
       <c r="J78" s="357">
-        <v>664.626984705778</v>
+        <v>664.62828529932824</v>
       </c>
       <c r="K78" s="357">
-        <v>682.85441371991851</v>
+        <v>682.85575028623714</v>
       </c>
       <c r="L78" s="357">
-        <v>702.43202266103208</v>
+        <v>702.43339786476861</v>
       </c>
       <c r="M78" s="357">
-        <v>723.51560152069317</v>
+        <v>723.51701833395657</v>
       </c>
       <c r="N78" s="13"/>
       <c r="O78"/>
@@ -13252,25 +13252,25 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
-      <c r="G79" s="517"/>
+      <c r="G79" s="527"/>
       <c r="H79" s="447">
         <f>H80+0.01</f>
         <v>0.16</v>
       </c>
       <c r="I79" s="357">
-        <v>726.14134869539805</v>
+        <v>726.14269298074703</v>
       </c>
       <c r="J79" s="357">
-        <v>747.04553468802283</v>
+        <v>747.04691797431019</v>
       </c>
       <c r="K79" s="357">
-        <v>769.55773498777239</v>
+        <v>769.55916027507078</v>
       </c>
       <c r="L79" s="357">
-        <v>793.87091131150191</v>
+        <v>793.87238195989187</v>
       </c>
       <c r="M79" s="357">
-        <v>820.21018570054616</v>
+        <v>820.21170545178165</v>
       </c>
       <c r="N79" s="13"/>
       <c r="O79"/>
@@ -13291,24 +13291,24 @@
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="517"/>
+      <c r="G80" s="527"/>
       <c r="H80" s="448">
         <v>0.15</v>
       </c>
       <c r="I80" s="357">
-        <v>819.07160456841393</v>
+        <v>819.07303366463668</v>
       </c>
       <c r="J80" s="357">
-        <v>845.04698034459636</v>
+        <v>845.04845507488278</v>
       </c>
       <c r="K80" s="357">
-        <v>873.18697076879425</v>
+        <v>873.18849493598293</v>
       </c>
       <c r="L80" s="357">
-        <v>903.77391688205284</v>
+        <v>903.77549478500464</v>
       </c>
       <c r="M80" s="357">
-        <v>937.14149446015301</v>
+        <v>937.14313098393757</v>
       </c>
       <c r="N80" s="13"/>
       <c r="O80"/>
@@ -13329,25 +13329,25 @@
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
-      <c r="G81" s="517"/>
+      <c r="G81" s="527"/>
       <c r="H81" s="447">
         <f>H80-0.01</f>
         <v>0.13999999999999999</v>
       </c>
       <c r="I81" s="357">
-        <v>930.20333627483149</v>
+        <v>930.20485910512809</v>
       </c>
       <c r="J81" s="357">
-        <v>962.90027484789425</v>
+        <v>962.90185153125583</v>
       </c>
       <c r="K81" s="357">
-        <v>998.569662382145</v>
+        <v>998.57129781430467</v>
       </c>
       <c r="L81" s="357">
-        <v>1037.636134443467</v>
+        <v>1037.6378342195485</v>
       </c>
       <c r="M81" s="357">
-        <v>1080.6092537109212</v>
+        <v>1080.6110242653167</v>
       </c>
       <c r="N81" s="13"/>
       <c r="O81"/>
@@ -13368,25 +13368,25 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="517"/>
+      <c r="G82" s="527"/>
       <c r="H82" s="447">
         <f>H81-0.01</f>
         <v>0.12999999999999998</v>
       </c>
       <c r="I82" s="357">
-        <v>1064.7347132000411</v>
+        <v>1064.7363403103825</v>
       </c>
       <c r="J82" s="357">
-        <v>1106.5206767575485</v>
+        <v>1106.5223680630982</v>
       </c>
       <c r="K82" s="357">
-        <v>1152.4852366708067</v>
+        <v>1152.4869985910864</v>
       </c>
       <c r="L82" s="357">
-        <v>1203.2881713117756</v>
+        <v>1203.290011279915</v>
       </c>
       <c r="M82" s="357">
-        <v>1259.7358764684082</v>
+        <v>1259.7378031563912</v>
       </c>
       <c r="N82" s="13"/>
       <c r="O82"/>
@@ -13456,14 +13456,14 @@
       <c r="D85" s="351"/>
       <c r="E85" s="352"/>
       <c r="G85" s="102"/>
-      <c r="H85" s="529" t="s">
+      <c r="H85" s="522" t="s">
         <v>388</v>
       </c>
-      <c r="I85" s="529"/>
-      <c r="J85" s="529"/>
-      <c r="K85" s="529"/>
-      <c r="L85" s="529"/>
-      <c r="M85" s="529"/>
+      <c r="I85" s="522"/>
+      <c r="J85" s="522"/>
+      <c r="K85" s="522"/>
+      <c r="L85" s="522"/>
+      <c r="M85" s="522"/>
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
@@ -13484,7 +13484,7 @@
       <c r="G86" s="102"/>
       <c r="H86" s="378">
         <f ca="1">D72</f>
-        <v>800.64849810730414</v>
+        <v>800.64989483744228</v>
       </c>
       <c r="I86" s="369">
         <f>J86-1</f>
@@ -13522,7 +13522,7 @@
       <c r="C87" s="351"/>
       <c r="D87" s="351"/>
       <c r="E87" s="352"/>
-      <c r="G87" s="516" t="str">
+      <c r="G87" s="526" t="str">
         <f>$F$3</f>
         <v>Discount Rate</v>
       </c>
@@ -13532,19 +13532,19 @@
       </c>
       <c r="I87" s="355">
         <f t="dataTable" ref="I87:M91" dt2D="1" dtr="1" r1="I42" r2="H3" ca="1"/>
-        <v>505.75043078061344</v>
+        <v>505.75141782311744</v>
       </c>
       <c r="J87" s="356">
-        <v>601.83067142175742</v>
+        <v>601.83184808355657</v>
       </c>
       <c r="K87" s="356">
-        <v>697.91091206290139</v>
+        <v>697.91227834399569</v>
       </c>
       <c r="L87" s="356">
-        <v>793.99115270404536</v>
+        <v>793.99270860443505</v>
       </c>
       <c r="M87" s="356">
-        <v>890.07139334518922</v>
+        <v>890.07313886487407</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -13563,25 +13563,25 @@
       <c r="C88" s="351"/>
       <c r="D88" s="351"/>
       <c r="E88" s="352"/>
-      <c r="G88" s="516"/>
+      <c r="G88" s="526"/>
       <c r="H88" s="362">
         <f>H89+0.01</f>
         <v>0.16</v>
       </c>
       <c r="I88" s="371">
-        <v>540.27223353560396</v>
+        <v>540.27323101979323</v>
       </c>
       <c r="J88" s="357">
-        <v>643.74726476785895</v>
+        <v>643.74845530053801</v>
       </c>
       <c r="K88" s="357">
-        <v>747.22229600011394</v>
+        <v>747.22367958128279</v>
       </c>
       <c r="L88" s="357">
-        <v>850.69732723236905</v>
+        <v>850.69890386202769</v>
       </c>
       <c r="M88" s="357">
-        <v>954.17235846462404</v>
+        <v>954.17412814277247</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
@@ -13600,24 +13600,24 @@
       <c r="C89" s="351"/>
       <c r="D89" s="351"/>
       <c r="E89" s="352"/>
-      <c r="G89" s="516"/>
+      <c r="G89" s="526"/>
       <c r="H89" s="363">
         <v>0.15</v>
       </c>
       <c r="I89" s="371">
-        <v>577.62745107610795</v>
+        <v>577.62845602372659</v>
       </c>
       <c r="J89" s="357">
-        <v>689.13797450362051</v>
+        <v>689.13917536011559</v>
       </c>
       <c r="K89" s="381">
-        <v>800.64849796636656</v>
+        <v>800.64989469650459</v>
       </c>
       <c r="L89" s="357">
-        <v>912.1590213988211</v>
+        <v>912.16061403289359</v>
       </c>
       <c r="M89" s="357">
-        <v>1023.6695448312753</v>
+        <v>1023.6713333692826</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -13636,25 +13636,25 @@
       <c r="C90" s="351"/>
       <c r="D90" s="351"/>
       <c r="E90" s="352"/>
-      <c r="G90" s="516"/>
+      <c r="G90" s="526"/>
       <c r="H90" s="362">
         <f>H89-0.01</f>
         <v>0.13999999999999999</v>
       </c>
       <c r="I90" s="371">
-        <v>618.08038221227605</v>
+        <v>618.08139096454352</v>
       </c>
       <c r="J90" s="357">
-        <v>738.3289235364025</v>
+        <v>738.33013034245721</v>
       </c>
       <c r="K90" s="357">
-        <v>858.57746486052883</v>
+        <v>858.57886972037068</v>
       </c>
       <c r="L90" s="357">
-        <v>978.8260061846554</v>
+        <v>978.82760909828448</v>
       </c>
       <c r="M90" s="357">
-        <v>1099.0745475087817</v>
+        <v>1099.0763484761981</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -13673,25 +13673,25 @@
       <c r="C91" s="351"/>
       <c r="D91" s="351"/>
       <c r="E91" s="352"/>
-      <c r="G91" s="517"/>
+      <c r="G91" s="527"/>
       <c r="H91" s="364">
         <f>H90-0.01</f>
         <v>0.12999999999999998</v>
       </c>
       <c r="I91" s="371">
-        <v>661.92282659366003</v>
+        <v>661.92383486956373</v>
       </c>
       <c r="J91" s="357">
-        <v>791.68032145256166</v>
+        <v>791.6815290731447</v>
       </c>
       <c r="K91" s="357">
-        <v>921.43781631146328</v>
+        <v>921.43922327672567</v>
       </c>
       <c r="L91" s="357">
-        <v>1051.1953111703651</v>
+        <v>1051.1969174803066</v>
       </c>
       <c r="M91" s="357">
-        <v>1180.9528060292664</v>
+        <v>1180.9546116838876</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -13801,15 +13801,15 @@
       </c>
       <c r="C96" s="375">
         <f>I80</f>
-        <v>819.07160456841393</v>
+        <v>819.07303366463668</v>
       </c>
       <c r="D96" s="375">
         <f>E96-C96</f>
-        <v>118.06988989173908</v>
+        <v>118.07009731930088</v>
       </c>
       <c r="E96" s="376">
         <f>M80</f>
-        <v>937.14149446015301</v>
+        <v>937.14313098393757</v>
       </c>
       <c r="F96" s="102"/>
       <c r="G96" s="102"/>
@@ -13833,15 +13833,15 @@
       </c>
       <c r="C97" s="372">
         <f>I89</f>
-        <v>577.62745107610795</v>
+        <v>577.62845602372659</v>
       </c>
       <c r="D97" s="372">
         <f>E97-C97</f>
-        <v>446.04209375516734</v>
+        <v>446.04287734555601</v>
       </c>
       <c r="E97" s="377">
         <f>M89</f>
-        <v>1023.6695448312753</v>
+        <v>1023.6713333692826</v>
       </c>
       <c r="F97" s="102"/>
       <c r="G97" s="102"/>
@@ -14089,6 +14089,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="G78:G82"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:L5"/>
@@ -14096,13 +14103,6 @@
     <mergeCell ref="H85:M85"/>
     <mergeCell ref="H76:M76"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G87:G91"/>
-    <mergeCell ref="G78:G82"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="I78:M82 I87:M91">
     <cfRule type="cellIs" dxfId="5" priority="21" operator="lessThan">
